--- a/src/docs/exception-handling/Behandlung von Ausnahmefällen.xlsx
+++ b/src/docs/exception-handling/Behandlung von Ausnahmefällen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scep\Documents\NetBeansProjects\GPI_2018_HS_Abschlussarbeit_Vorgaben\Umzugsplattform_vor_Aufgabe_2\src\docs\exception-handling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8280123D-6F4F-48AB-B2D2-46EC6552B4C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC77307-ABF8-46D9-9D18-FF2D51FC13C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{1CA546D6-EFA8-4729-994E-6B73A0DB6D9E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Ausnahmefälle und ihre Behandlung</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>UmzugsmeldungErfassenUndBezahlen:PersonErfassenUndIdentifizieren bis UmzugsmeldungErfassenUndBezahlen:AlleAngabenPruefen</t>
-  </si>
-  <si>
-    <t>UmzugsmeldungErfassenUndBezahlen:Neuer expanded Teilprozess UmzugsmeldungErfassen mit angeheftetem Zeit-Ereignis AchtundvierzigStundenVerstrichen und nachfolgendem Sequenzfluss</t>
   </si>
   <si>
     <t>Meldepflichtige bricht Erfassung ab</t>
@@ -130,12 +127,6 @@
   </si>
   <si>
     <t>Bemerkungen (optional)</t>
-  </si>
-  <si>
-    <t>Alternativ könnte im UmzugsmeldungErfassenUndBezahlen lediglich der Fehler abgefangen werden und ein Status gesetzt werden. Die Persistierung könnte dann im UmzugMelden-Prozess stattfinden. Vorteil: Persistierung würde nur an einer Stelle stattfinden. Nachteil: Welcher Status persistiert wird, wäre nicht direkt im Modell sichtbar.</t>
-  </si>
-  <si>
-    <t>Wenn 48 h verstrichen sind, soll die Ausnahmefallbehandlung beginnen: Falls der Meldepflichtige bereits seine Personalien erfasst hat und dadurch eine localPersonId hat, sollen diese in der Datenbank persistiert werden, damit man nachträglich weiss, dass er angefangen hat, aber nicht fertiggestellt. In jedem Fall soll ein Fehler geworfen werden, welcher gemäss ID 1 abgefangen wird im UmzugMelden-Prozess.</t>
   </si>
   <si>
     <t>Die eigentlichen Ausnahmefälle geschehen innerhalb des aufgerufenen Prozesses (siehe separate Einträge). Falls diese Ausnahmefälle so gravierend sind, dass eine Weiterführung des Hauptprozesses keinen Sinn macht, so ist dies ein Ausnahmefall auf Ebene des Hauptprozesses.</t>
@@ -905,7 +896,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +930,7 @@
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="I2" s="49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -960,7 +951,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -973,7 +964,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="27"/>
       <c r="J3" s="50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
@@ -986,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="I4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="L4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>41</v>
-      </c>
       <c r="O4" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1069,7 +1060,7 @@
       </c>
       <c r="J5" s="37">
         <f>SUM(J6:J1004)</f>
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="K5" s="29" t="s">
         <v>6</v>
@@ -1082,9 +1073,9 @@
         <f>AVERAGE(M6:M1004)</f>
         <v>10</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="30" t="e">
         <f>AVERAGE(N6:N1004)</f>
-        <v>10</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O5" s="43" t="s">
         <v>6</v>
@@ -1105,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>5</v>
@@ -1130,11 +1121,11 @@
       </c>
       <c r="J6" s="38">
         <f>I6*K6</f>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="K6" s="31">
         <f t="shared" ref="K6:K69" si="0">(0.1*L6+0.3*M6+0.6*N6)/10</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="33">
         <v>10</v>
@@ -1142,9 +1133,7 @@
       <c r="M6" s="33">
         <v>10</v>
       </c>
-      <c r="N6" s="34">
-        <v>10</v>
-      </c>
+      <c r="N6" s="34"/>
       <c r="O6" s="44"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
@@ -1157,7 +1146,7 @@
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
     </row>
-    <row r="7" spans="1:25" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2</v>
       </c>
@@ -1165,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>9</v>
@@ -1173,25 +1162,19 @@
       <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="33">
         <v>2</v>
       </c>
       <c r="J7" s="38">
         <f t="shared" ref="J7:J70" si="1">I7*K7</f>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L7" s="33">
         <v>10</v>
@@ -1199,9 +1182,7 @@
       <c r="M7" s="33">
         <v>10</v>
       </c>
-      <c r="N7" s="34">
-        <v>10</v>
-      </c>
+      <c r="N7" s="34"/>
       <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -25171,7 +25152,7 @@
         <v>0</v>
       </c>
       <c r="K966" s="31">
-        <f t="shared" ref="K966:K1029" si="30">(0.1*L966+0.3*M966+0.6*N966)/10</f>
+        <f t="shared" ref="K966:K1004" si="30">(0.1*L966+0.3*M966+0.6*N966)/10</f>
         <v>0</v>
       </c>
       <c r="L966" s="33"/>
@@ -26171,20 +26152,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -26192,18 +26173,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -26211,15 +26192,15 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
